--- a/Aula 2/Cenários de testes.xlsx
+++ b/Aula 2/Cenários de testes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Área de Trabalho\teste\EBAC_JornadaQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Área de Trabalho\teste\EBAC_JornadaQA\Aula 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122C9CD4-7D7A-4EF1-B90D-22B0F5E39C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F33446-04B7-4D08-B2A3-E2A8250D32D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3069688C-34A7-424E-9324-F52356C67A10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3069688C-34A7-424E-9324-F52356C67A10}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="102">
   <si>
     <t>US</t>
   </si>
@@ -438,7 +438,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -461,13 +461,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
@@ -481,32 +474,6 @@
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -840,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78D86B2-6D9D-49B0-B765-CA59F58AAB3B}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +877,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>43</v>
@@ -1032,7 +999,7 @@
         <v>67</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1110,7 +1077,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1162,7 +1129,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1188,7 +1155,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1240,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1266,7 +1233,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1288,9 +1255,11 @@
       <c r="F16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="H16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1342,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1362,13 +1331,13 @@
         <v>51</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1498,7 +1467,7 @@
         <v>67</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1478,7 @@
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>$K$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1542,20 +1511,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>H2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{877A235B-A71E-4158-BEAE-8551801AF9D2}">
-            <xm:f>NOT(ISERROR(SEARCH($K$2,H2)))</xm:f>
-            <xm:f>$K$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H2:H20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{AACB5025-FAB7-4F93-A154-B048BD004FDF}">

--- a/Aula 2/Cenários de testes.xlsx
+++ b/Aula 2/Cenários de testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Área de Trabalho\teste\EBAC_JornadaQA\Aula 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F33446-04B7-4D08-B2A3-E2A8250D32D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65DDE1A-92FD-4C69-AACD-5516EB411761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3069688C-34A7-424E-9324-F52356C67A10}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="105">
   <si>
     <t>US</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Criticidade</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t>Obs.</t>
@@ -346,6 +343,18 @@
   </si>
   <si>
     <t>Listar de 4 a 5 filmes iguais ao dia anterior com informações de capa, título e breve sinopse</t>
+  </si>
+  <si>
+    <t>Status API</t>
+  </si>
+  <si>
+    <t>Status WEB</t>
+  </si>
+  <si>
+    <t>Não se aplica</t>
+  </si>
+  <si>
+    <t>Melhorar a apresentação da mensagem</t>
   </si>
 </sst>
 </file>
@@ -438,7 +447,73 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -805,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78D86B2-6D9D-49B0-B765-CA59F58AAB3B}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,12 +895,13 @@
     <col min="5" max="5" width="94.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="105.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -848,646 +924,742 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="C21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{B78D86B2-6D9D-49B0-B765-CA59F58AAB3B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I24">
+  <autoFilter ref="A1:J1" xr:uid="{B78D86B2-6D9D-49B0-B765-CA59F58AAB3B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>$K$2</formula>
+  <conditionalFormatting sqref="H2:I2 I2:I24">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G35" xr:uid="{D5D9FFEE-D64C-4293-B3B8-083C594D6109}">
-      <formula1>$J$2:$J$4</formula1>
+  <conditionalFormatting sqref="H3:H9">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H24">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G35 H25:H35" xr:uid="{D5D9FFEE-D64C-4293-B3B8-083C594D6109}">
+      <formula1>$K$2:$K$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H35" xr:uid="{CCFCC854-CFB1-467A-9818-4D1753D84ADD}">
-      <formula1>$K$2:$K$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I25:I35" xr:uid="{CCFCC854-CFB1-467A-9818-4D1753D84ADD}">
+      <formula1>$L$2:$L$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I24" xr:uid="{E69C3959-7DD1-487B-AC2A-EAB7F3C52E73}">
+      <formula1>$L$2:$L$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1496,9 +1668,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{0AD05D9D-8EF1-498F-84CA-3655CBFE26A9}">
-            <xm:f>NOT(ISERROR(SEARCH($K$2,H2)))</xm:f>
-            <xm:f>$K$2</xm:f>
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{0AD05D9D-8EF1-498F-84CA-3655CBFE26A9}">
+            <xm:f>NOT(ISERROR(SEARCH($L$2,H2)))</xm:f>
+            <xm:f>$L$2</xm:f>
             <x14:dxf>
               <font>
                 <color auto="1"/>
@@ -1510,12 +1682,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H2</xm:sqref>
+          <xm:sqref>H2:I2 I2:I24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{AACB5025-FAB7-4F93-A154-B048BD004FDF}">
-            <xm:f>NOT(ISERROR(SEARCH($K$4,H2)))</xm:f>
-            <xm:f>$K$4</xm:f>
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{AACB5025-FAB7-4F93-A154-B048BD004FDF}">
+            <xm:f>NOT(ISERROR(SEARCH($L$4,I2)))</xm:f>
+            <xm:f>$L$4</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -1524,9 +1696,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{200742D5-EBF8-4D0E-A7B9-BA4D3A3ECBBA}">
-            <xm:f>NOT(ISERROR(SEARCH($K$3,H2)))</xm:f>
-            <xm:f>$K$3</xm:f>
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{200742D5-EBF8-4D0E-A7B9-BA4D3A3ECBBA}">
+            <xm:f>NOT(ISERROR(SEARCH($L$3,I2)))</xm:f>
+            <xm:f>$L$3</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -1535,9 +1707,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{464F9BD2-DE5A-4867-9E68-DB5B525C144E}">
-            <xm:f>NOT(ISERROR(SEARCH($K$2,H2)))</xm:f>
-            <xm:f>$K$2</xm:f>
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{464F9BD2-DE5A-4867-9E68-DB5B525C144E}">
+            <xm:f>NOT(ISERROR(SEARCH($L$2,I2)))</xm:f>
+            <xm:f>$L$2</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -1546,7 +1718,94 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H2:H35</xm:sqref>
+          <xm:sqref>I2:I35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{427B683D-0F9B-4ED0-BAF9-52CD86E34BE5}">
+            <xm:f>NOT(ISERROR(SEARCH($L$4,H2)))</xm:f>
+            <xm:f>$L$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{D72BD63A-30C3-4F78-B2BC-A1A8CFDC4690}">
+            <xm:f>NOT(ISERROR(SEARCH($L$3,H2)))</xm:f>
+            <xm:f>$L$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{C55EA3F2-ED96-4559-BFA1-1F300D99092D}">
+            <xm:f>NOT(ISERROR(SEARCH($L$2,H2)))</xm:f>
+            <xm:f>$L$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H2:H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{D939370F-4214-4AEE-92FA-9B43DC3AB350}">
+            <xm:f>NOT(ISERROR(SEARCH($L$2,H3)))</xm:f>
+            <xm:f>$L$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H3:H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{A5BC64CD-BA58-43FB-A7C8-F3D6A131F37F}">
+            <xm:f>NOT(ISERROR(SEARCH($L$2,H17)))</xm:f>
+            <xm:f>$L$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{7A02928D-CADB-43AE-9446-AAA1E24D3A8F}">
+            <xm:f>NOT(ISERROR(SEARCH($L$2,H20)))</xm:f>
+            <xm:f>$L$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H20:H24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Aula 2/Cenários de testes.xlsx
+++ b/Aula 2/Cenários de testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Área de Trabalho\teste\EBAC_JornadaQA\Aula 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65DDE1A-92FD-4C69-AACD-5516EB411761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C9ADDE-8192-47E3-8A9E-F2D68EC4D142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3069688C-34A7-424E-9324-F52356C67A10}"/>
   </bookViews>
@@ -449,6 +449,42 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
@@ -511,42 +547,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78D86B2-6D9D-49B0-B765-CA59F58AAB3B}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,23 +1631,23 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H2:I2 I2:I24">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>$L$2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H3:H9">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H24">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I2 I2:I24">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1667,59 +1667,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{0AD05D9D-8EF1-498F-84CA-3655CBFE26A9}">
-            <xm:f>NOT(ISERROR(SEARCH($L$2,H2)))</xm:f>
-            <xm:f>$L$2</xm:f>
-            <x14:dxf>
-              <font>
-                <color auto="1"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H2:I2 I2:I24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{AACB5025-FAB7-4F93-A154-B048BD004FDF}">
-            <xm:f>NOT(ISERROR(SEARCH($L$4,I2)))</xm:f>
-            <xm:f>$L$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{200742D5-EBF8-4D0E-A7B9-BA4D3A3ECBBA}">
-            <xm:f>NOT(ISERROR(SEARCH($L$3,I2)))</xm:f>
-            <xm:f>$L$3</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{464F9BD2-DE5A-4867-9E68-DB5B525C144E}">
-            <xm:f>NOT(ISERROR(SEARCH($L$2,I2)))</xm:f>
-            <xm:f>$L$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I2:I35</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="7" operator="containsText" id="{427B683D-0F9B-4ED0-BAF9-52CD86E34BE5}">
             <xm:f>NOT(ISERROR(SEARCH($L$4,H2)))</xm:f>
@@ -1807,6 +1754,59 @@
           </x14:cfRule>
           <xm:sqref>H20:H24</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{0AD05D9D-8EF1-498F-84CA-3655CBFE26A9}">
+            <xm:f>NOT(ISERROR(SEARCH($L$2,H2)))</xm:f>
+            <xm:f>$L$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H2:I2 I2:I24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{AACB5025-FAB7-4F93-A154-B048BD004FDF}">
+            <xm:f>NOT(ISERROR(SEARCH($L$4,I2)))</xm:f>
+            <xm:f>$L$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{200742D5-EBF8-4D0E-A7B9-BA4D3A3ECBBA}">
+            <xm:f>NOT(ISERROR(SEARCH($L$3,I2)))</xm:f>
+            <xm:f>$L$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{464F9BD2-DE5A-4867-9E68-DB5B525C144E}">
+            <xm:f>NOT(ISERROR(SEARCH($L$2,I2)))</xm:f>
+            <xm:f>$L$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I2:I35</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
